--- a/cam/ADS1299-shield-bom.xlsx
+++ b/cam/ADS1299-shield-bom.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
   <si>
     <t>Reference</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Components</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>PCB</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>PIN HEADER - 5V-2.5V - 1x3 male header</t>
   </si>
   <si>
-    <t>PIN HEADER - PWMH - 1x10 female header</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
     <t>TPS73225DBVT - Cap-Free, NMOS, 250mA Low Dropout Regulator</t>
   </si>
   <si>
-    <t>ADS1299IPAG - 8-Channel, 24-Bit Analog-To-Digital Converter With Integrated EEG Front End.</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -461,15 +452,6 @@
     <t>A113802-ND</t>
   </si>
   <si>
-    <t>SMT?</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>NI</t>
   </si>
   <si>
@@ -488,9 +470,6 @@
     <t>Pins extension</t>
   </si>
   <si>
-    <t>Total components</t>
-  </si>
-  <si>
     <t>CL10A225KP8NNNC</t>
   </si>
   <si>
@@ -539,9 +518,6 @@
     <t>Microchip</t>
   </si>
   <si>
-    <t>ADS1299IPAG</t>
-  </si>
-  <si>
     <t>TPS72325DBVT</t>
   </si>
   <si>
@@ -612,6 +588,75 @@
   </si>
   <si>
     <t>http://www.4uconnector.com/online/SearchPro.asp?FormName=ProSearch&amp;FormAction=search&amp;s_GroupNo=&amp;s_keyword=18677</t>
+  </si>
+  <si>
+    <t>JP18</t>
+  </si>
+  <si>
+    <t>PIN HEADER - 1x10 female header</t>
+  </si>
+  <si>
+    <t>PIN HEADER - 2x18 female header</t>
+  </si>
+  <si>
+    <t>http://www.4uconnector.com/online/SearchPro.asp?FormName=ProSearch&amp;FormAction=search&amp;s_GroupNo=&amp;s_keyword=19639</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>my margin</t>
+  </si>
+  <si>
+    <t>distributor cost</t>
+  </si>
+  <si>
+    <t>distributor margin</t>
+  </si>
+  <si>
+    <t>end user cost</t>
+  </si>
+  <si>
+    <t>Conservative</t>
+  </si>
+  <si>
+    <t>Bigger</t>
+  </si>
+  <si>
+    <t>BOM line items</t>
+  </si>
+  <si>
+    <t>Though-hole pins</t>
+  </si>
+  <si>
+    <t>Pins/Pads</t>
+  </si>
+  <si>
+    <t>ADS1299CPAG - 8-Channel, 24-Bit Analog-To-Digital Converter With Integrated EEG Front End.</t>
+  </si>
+  <si>
+    <t>ADS1299CPAG</t>
+  </si>
+  <si>
+    <t>SMT/TH</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>TQFP64</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>SMT Pads</t>
+  </si>
+  <si>
+    <t>Total component items</t>
   </si>
 </sst>
 </file>
@@ -708,7 +753,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -733,6 +778,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1086,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1109,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1127,19 +1174,19 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45">
@@ -1147,28 +1194,35 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I17" si="0">G2*H2</f>
+        <v>6</v>
+      </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1176,57 +1230,71 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="J3" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>7</v>
       </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30">
@@ -1234,31 +1302,38 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G5">
         <v>17</v>
       </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="J5" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45">
@@ -1266,28 +1341,35 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>25</v>
       </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30">
@@ -1295,86 +1377,107 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>12</v>
       </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30">
       <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" t="s">
         <v>90</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" t="s">
-        <v>93</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1382,25 +1485,35 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>64</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1408,25 +1521,35 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1434,25 +1557,35 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1460,25 +1593,35 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1486,25 +1629,35 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1512,25 +1665,35 @@
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1538,25 +1701,35 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1564,25 +1737,32 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1590,16 +1770,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1612,10 +1792,10 @@
         <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1623,16 +1803,16 @@
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1641,14 +1821,14 @@
         <v>8</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:I24" si="0">G19*H19</f>
+        <f t="shared" ref="I19:I24" si="1">G19*H19</f>
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1656,16 +1836,16 @@
         <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1674,25 +1854,25 @@
         <v>24</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21">
         <v>18689</v>
@@ -1704,14 +1884,14 @@
         <v>8</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1719,16 +1899,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1737,31 +1917,31 @@
         <v>20</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1770,17 +1950,17 @@
         <v>15</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1788,10 +1968,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24">
         <v>19950</v>
@@ -1803,69 +1983,80 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" t="s">
-        <v>112</v>
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>19950</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>36</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I35" si="2">G25*H25</f>
+        <v>36</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F26" t="s">
         <v>109</v>
       </c>
       <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
         <v>2</v>
       </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="J26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>110</v>
@@ -1873,203 +2064,265 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" t="s">
-        <v>192</v>
-      </c>
-      <c r="F28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28">
+      <c r="B29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29">
         <v>2</v>
       </c>
-      <c r="J28" t="s">
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="45">
-      <c r="A29" s="2" t="s">
+      <c r="L29" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="45">
+      <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29">
+      <c r="B30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30">
         <v>18</v>
       </c>
-      <c r="J29" t="s">
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="J30" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30">
-        <v>18677</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" t="s">
-        <v>196</v>
+      <c r="L30" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>149</v>
+        <v>206</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31">
+        <v>18677</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" t="s">
-        <v>111</v>
+        <v>39</v>
+      </c>
+      <c r="L31" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E34" t="s">
-        <v>194</v>
-      </c>
-      <c r="F34" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34">
+      <c r="B35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35">
         <v>2</v>
       </c>
-      <c r="J34" t="s">
-        <v>85</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="6"/>
+      <c r="H35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="B40" s="5"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:12">
       <c r="B41" s="5"/>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5"/>
+    <row r="42" spans="1:12">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="6"/>
+      <c r="B44" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2080,11 +2333,11 @@
     <hyperlink ref="L3" r:id="rId5"/>
     <hyperlink ref="L5" r:id="rId6"/>
     <hyperlink ref="L17" r:id="rId7"/>
-    <hyperlink ref="L29" r:id="rId8"/>
-    <hyperlink ref="L27" r:id="rId9"/>
-    <hyperlink ref="L28" r:id="rId10"/>
-    <hyperlink ref="L26" r:id="rId11"/>
-    <hyperlink ref="L25" r:id="rId12"/>
+    <hyperlink ref="L30" r:id="rId8"/>
+    <hyperlink ref="L28" r:id="rId9"/>
+    <hyperlink ref="L29" r:id="rId10"/>
+    <hyperlink ref="L27" r:id="rId11"/>
+    <hyperlink ref="L26" r:id="rId12"/>
     <hyperlink ref="L10" r:id="rId13"/>
     <hyperlink ref="L11" r:id="rId14"/>
     <hyperlink ref="L12" r:id="rId15"/>
@@ -2092,7 +2345,7 @@
     <hyperlink ref="L14" r:id="rId17"/>
     <hyperlink ref="L15" r:id="rId18"/>
     <hyperlink ref="L16" r:id="rId19"/>
-    <hyperlink ref="L34" r:id="rId20"/>
+    <hyperlink ref="L35" r:id="rId20"/>
     <hyperlink ref="L18" r:id="rId21"/>
     <hyperlink ref="L19" r:id="rId22"/>
     <hyperlink ref="L20" r:id="rId23"/>
@@ -2100,8 +2353,8 @@
     <hyperlink ref="L22" r:id="rId25"/>
     <hyperlink ref="L24" r:id="rId26"/>
     <hyperlink ref="D9" r:id="rId27"/>
-    <hyperlink ref="D26" r:id="rId28"/>
-    <hyperlink ref="D27:D29" r:id="rId29" display="Panasonic Electronic Components"/>
+    <hyperlink ref="D27" r:id="rId28"/>
+    <hyperlink ref="D28:D30" r:id="rId29" display="Panasonic Electronic Components"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2115,73 +2368,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="3" spans="1:3">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>52</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
       <c r="B6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="10">
         <f>SUM(B5:B9)</f>
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="C11" s="10">
+        <f>SUM(C5:C9)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="10">
+        <f>B11+B11*B15</f>
+        <v>187.5</v>
+      </c>
+      <c r="C17" s="10">
+        <f>C11+C11*C15</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20">
+        <f>B17+B17*B18</f>
+        <v>281.25</v>
+      </c>
+      <c r="C20">
+        <f>C17+C17*C18</f>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2192,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2205,48 +2542,73 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B2" s="8">
+        <f>SUMIF(BOM!B2:B35,"=SMT",BOM!G2:G35)</f>
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B3" s="8">
-        <v>13</v>
+        <f>SUMIF(BOM!B3:B36,"=TH",BOM!G3:G36)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="8">
+        <v>202</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="8">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8">
-        <f>SUM(BOM!G2:G35)</f>
-        <v>123</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9">
+        <f>COUNT(BOM!G2:G35)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10">
+        <f>SUM(BOM!G2:G36)</f>
+        <v>124</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cam/ADS1299-shield-bom.xlsx
+++ b/cam/ADS1299-shield-bom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="216">
   <si>
     <t>Reference</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Capacitor - 2.2uF</t>
   </si>
   <si>
-    <t>C17</t>
-  </si>
-  <si>
     <t>Capacitor - 100uF</t>
   </si>
   <si>
@@ -218,15 +215,9 @@
     <t>PIN HEADER - CONFIG1 - 2x12 male header</t>
   </si>
   <si>
-    <t>PIN HEADER - BOARD_ADDRESS - 2x4 male header</t>
-  </si>
-  <si>
     <t>PIN HEADER - Electrode Connector - 2x15 RA male shrouded header</t>
   </si>
   <si>
-    <t>PIN HEADER - CONFIG3 - 2x10 male header</t>
-  </si>
-  <si>
     <t>PIN HEADER - 5V-2.5V - 1x3 male header</t>
   </si>
   <si>
@@ -305,9 +296,6 @@
     <t>160-1737-1-ND</t>
   </si>
   <si>
-    <t>adafruit :: JST_3PIN PH Series - EXTERNAL_SYNC</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-search/en?mpart=S3B-PH-K-S%28LF%29%28SN%29&amp;vendor=455</t>
   </si>
   <si>
@@ -657,6 +645,30 @@
   </si>
   <si>
     <t>Total component items</t>
+  </si>
+  <si>
+    <t>PIN HEADER - 2x4 male header</t>
+  </si>
+  <si>
+    <t>JST_3PIN - PH Series</t>
+  </si>
+  <si>
+    <t>PIN HEADER - 2x10 male header</t>
+  </si>
+  <si>
+    <t>C17, C25</t>
+  </si>
+  <si>
+    <t>P392HCT-ND</t>
+  </si>
+  <si>
+    <t>Resistor - 392</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/ERJ-3EKF3920V/P392HCT-ND/198363</t>
+  </si>
+  <si>
+    <t>R6</t>
   </si>
 </sst>
 </file>
@@ -728,7 +740,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -737,6 +749,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -781,7 +794,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -800,6 +813,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1133,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1156,37 +1170,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45">
@@ -1194,91 +1208,91 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I17" si="0">G2*H2</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -1291,30 +1305,30 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -1327,105 +1341,105 @@
         <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30">
       <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" t="s">
         <v>87</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" t="s">
-        <v>90</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1438,30 +1452,30 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1474,30 +1488,30 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1510,30 +1524,30 @@
         <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1546,30 +1560,30 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1582,30 +1596,30 @@
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1618,30 +1632,30 @@
         <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1654,30 +1668,30 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1690,30 +1704,30 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1726,27 +1740,27 @@
         <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1759,27 +1773,27 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1792,27 +1806,27 @@
         <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1825,27 +1839,27 @@
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1858,21 +1872,21 @@
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>18689</v>
@@ -1888,27 +1902,27 @@
         <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1921,27 +1935,27 @@
         <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1954,24 +1968,24 @@
         <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E24">
         <v>19950</v>
@@ -1987,24 +2001,24 @@
         <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E25">
         <v>19950</v>
@@ -2016,34 +2030,34 @@
         <v>36</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I35" si="2">G25*H25</f>
+        <f t="shared" ref="I25:I36" si="2">G25*H25</f>
         <v>36</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2056,30 +2070,30 @@
         <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2092,237 +2106,273 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
+        <f t="shared" ref="I28" si="3">G28*H28</f>
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29">
+      <c r="B30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30">
         <v>2</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>2</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="45">
+      <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="45">
-      <c r="A30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30">
+      <c r="B31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31">
         <v>18</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31">
+      <c r="B32" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32">
         <v>18677</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>6</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J31" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="J32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" t="s">
-        <v>108</v>
+        <v>38</v>
+      </c>
+      <c r="L32" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35">
+        <v>139</v>
+      </c>
+      <c r="J35" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36">
         <v>2</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>20</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J35" t="s">
-        <v>82</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="6"/>
+      <c r="J36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="B41" s="5"/>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" spans="1:12">
       <c r="B42" s="5"/>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="6"/>
-      <c r="B44" s="5"/>
+    <row r="43" spans="1:12">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="6"/>
+      <c r="B45" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2333,28 +2383,29 @@
     <hyperlink ref="L3" r:id="rId5"/>
     <hyperlink ref="L5" r:id="rId6"/>
     <hyperlink ref="L17" r:id="rId7"/>
-    <hyperlink ref="L30" r:id="rId8"/>
-    <hyperlink ref="L28" r:id="rId9"/>
-    <hyperlink ref="L29" r:id="rId10"/>
-    <hyperlink ref="L27" r:id="rId11"/>
-    <hyperlink ref="L26" r:id="rId12"/>
-    <hyperlink ref="L10" r:id="rId13"/>
-    <hyperlink ref="L11" r:id="rId14"/>
-    <hyperlink ref="L12" r:id="rId15"/>
-    <hyperlink ref="L13" r:id="rId16"/>
-    <hyperlink ref="L14" r:id="rId17"/>
-    <hyperlink ref="L15" r:id="rId18"/>
-    <hyperlink ref="L16" r:id="rId19"/>
-    <hyperlink ref="L35" r:id="rId20"/>
-    <hyperlink ref="L18" r:id="rId21"/>
-    <hyperlink ref="L19" r:id="rId22"/>
-    <hyperlink ref="L20" r:id="rId23"/>
-    <hyperlink ref="L23" r:id="rId24"/>
-    <hyperlink ref="L22" r:id="rId25"/>
-    <hyperlink ref="L24" r:id="rId26"/>
-    <hyperlink ref="D9" r:id="rId27"/>
-    <hyperlink ref="D27" r:id="rId28"/>
-    <hyperlink ref="D28:D30" r:id="rId29" display="Panasonic Electronic Components"/>
+    <hyperlink ref="L31" r:id="rId8"/>
+    <hyperlink ref="L30" r:id="rId9"/>
+    <hyperlink ref="L27" r:id="rId10"/>
+    <hyperlink ref="L26" r:id="rId11"/>
+    <hyperlink ref="L10" r:id="rId12"/>
+    <hyperlink ref="L11" r:id="rId13"/>
+    <hyperlink ref="L12" r:id="rId14"/>
+    <hyperlink ref="L13" r:id="rId15"/>
+    <hyperlink ref="L14" r:id="rId16"/>
+    <hyperlink ref="L15" r:id="rId17"/>
+    <hyperlink ref="L16" r:id="rId18"/>
+    <hyperlink ref="L36" r:id="rId19"/>
+    <hyperlink ref="L18" r:id="rId20"/>
+    <hyperlink ref="L19" r:id="rId21"/>
+    <hyperlink ref="L20" r:id="rId22"/>
+    <hyperlink ref="L23" r:id="rId23"/>
+    <hyperlink ref="L22" r:id="rId24"/>
+    <hyperlink ref="L24" r:id="rId25"/>
+    <hyperlink ref="D9" r:id="rId26"/>
+    <hyperlink ref="D27" r:id="rId27"/>
+    <hyperlink ref="D29:D31" r:id="rId28" display="Panasonic Electronic Components"/>
+    <hyperlink ref="D28" r:id="rId29"/>
+    <hyperlink ref="L29" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2383,7 +2434,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2394,15 +2445,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -2413,7 +2464,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>75</v>
@@ -2424,7 +2475,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -2435,7 +2486,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2446,7 +2497,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2457,7 +2508,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="10">
         <f>SUM(B5:B9)</f>
@@ -2470,7 +2521,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B15">
         <v>0.5</v>
@@ -2481,7 +2532,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B17" s="10">
         <f>B11+B11*B15</f>
@@ -2494,7 +2545,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -2505,7 +2556,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B20">
         <f>B17+B17*B18</f>
@@ -2542,25 +2593,25 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B2" s="8">
-        <f>SUMIF(BOM!B2:B35,"=SMT",BOM!G2:G35)</f>
-        <v>110</v>
+        <f>SUMIF(BOM!B2:B36,"=SMT",BOM!G2:G36)</f>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B3" s="8">
-        <f>SUMIF(BOM!B3:B36,"=TH",BOM!G3:G36)</f>
+        <f>SUMIF(BOM!B3:B37,"=TH",BOM!G3:G37)</f>
         <v>14</v>
       </c>
     </row>
@@ -2570,13 +2621,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B6" s="8">
         <v>148</v>
@@ -2584,7 +2635,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B7" s="8">
         <v>115</v>
@@ -2592,20 +2643,20 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B9">
-        <f>COUNT(BOM!G2:G35)</f>
-        <v>31</v>
+        <f>COUNT(BOM!G2:G36)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B10">
-        <f>SUM(BOM!G2:G36)</f>
-        <v>124</v>
+        <f>SUM(BOM!G2:G37)</f>
+        <v>130</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>

--- a/cam/ADS1299-shield-bom.xlsx
+++ b/cam/ADS1299-shield-bom.xlsx
@@ -4,13 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="6" r:id="rId1"/>
-    <sheet name="Cost Estimator" sheetId="5" r:id="rId2"/>
-    <sheet name="Stats" sheetId="7" r:id="rId3"/>
+    <sheet name="Digikey1" sheetId="9" r:id="rId2"/>
+    <sheet name="Cost Estimator" sheetId="5" r:id="rId3"/>
+    <sheet name="Stats" sheetId="7" r:id="rId4"/>
+    <sheet name="SandSquid1" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="ADS1299_shield_1.0_final" localSheetId="4">SandSquid1!$A$1:$D$25</definedName>
+    <definedName name="ADS1299_shield_digikey_bom" localSheetId="1">Digikey1!$A$1:$L$30</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -20,8 +27,41 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="ADS1299-shield-1.0-final.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:adam:Downloads:ADS1299-shield-1.0-final.csv" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="ADS1299-shield-digikey-bom.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:adam:Downloads:ADS1299-shield-digikey-bom.csv" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="303">
   <si>
     <t>Reference</t>
   </si>
@@ -53,15 +93,9 @@
     <t>Capacitor - 4.7nF</t>
   </si>
   <si>
-    <t>C7,C9,C11,C13,C18,C19,C21,C22,C23,C26,C28,C29,C30,C31,C32,C50,C51,C52,C54,C56,C58,C60,C61,C70,C72</t>
-  </si>
-  <si>
     <t>Capacitor - 1uF</t>
   </si>
   <si>
-    <t>C8,C10,C12,C14,C20,C33,C53,C55,C57,C59,C71,C73</t>
-  </si>
-  <si>
     <t>Capacitor - 0.1uF</t>
   </si>
   <si>
@@ -197,9 +231,6 @@
     <t>http://www.digikey.com/product-detail/en/C1608X5R1A106M080AC/445-6853-1-ND/2619215</t>
   </si>
   <si>
-    <t>C2,C3,C5,C16,C6,C24,C27</t>
-  </si>
-  <si>
     <t>399-3118-1-ND</t>
   </si>
   <si>
@@ -428,12 +459,6 @@
     <t>http://www.4uconnector.com/online/SearchPro.asp?FormName=ProSearch&amp;FormAction=search&amp;s_GroupNo=&amp;s_keyword=18689</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/M20-9761246/952-1848-ND/3727815</t>
-  </si>
-  <si>
-    <t>952-1848-ND</t>
-  </si>
-  <si>
     <t>http://www.4uconnector.com/online/SearchPro.asp?FormName=ProSearch&amp;FormAction=search&amp;s_GroupNo=&amp;s_keyword=19950</t>
   </si>
   <si>
@@ -542,9 +567,6 @@
     <t>M20-9981246</t>
   </si>
   <si>
-    <t>M20-9761246</t>
-  </si>
-  <si>
     <t>5176264-9</t>
   </si>
   <si>
@@ -620,12 +642,6 @@
     <t>Pins/Pads</t>
   </si>
   <si>
-    <t>ADS1299CPAG - 8-Channel, 24-Bit Analog-To-Digital Converter With Integrated EEG Front End.</t>
-  </si>
-  <si>
-    <t>ADS1299CPAG</t>
-  </si>
-  <si>
     <t>SMT/TH</t>
   </si>
   <si>
@@ -669,6 +685,291 @@
   </si>
   <si>
     <t>R6</t>
+  </si>
+  <si>
+    <t>C1,C4,C28</t>
+  </si>
+  <si>
+    <t>C17,C25</t>
+  </si>
+  <si>
+    <t>C31,C66</t>
+  </si>
+  <si>
+    <t>Capacitor - 0.01uF</t>
+  </si>
+  <si>
+    <t>C8,C10,C12,C14,C20,C33,C53,C55,C57,C59,C63,C71,C73</t>
+  </si>
+  <si>
+    <t>Assorted Red LEDs - RED</t>
+  </si>
+  <si>
+    <t>White SMD LEDs - WHITE</t>
+  </si>
+  <si>
+    <t>8-Channel, 24-Bit Analog-To-Digital Converter With Integrated EEG Front End. - ADS1299IPAG</t>
+  </si>
+  <si>
+    <t>Cap-Free, NMOS, 250mA Low Dropout Regulator - TPS72325DBVT</t>
+  </si>
+  <si>
+    <t>Cap-Free, NMOS, 250mA Low Dropout Regulator - TPS73225DBVT</t>
+  </si>
+  <si>
+    <t>Serial EEPROM - 24AA256UID</t>
+  </si>
+  <si>
+    <t>60mA Charge Pump Voltage Inverter with Fixed 250kHz Operation - TPS60403DBVT</t>
+  </si>
+  <si>
+    <t>Low-Noise, Low Quiescent Current, Precision Operational Amplifier</t>
+  </si>
+  <si>
+    <t>2-Bit Bi-Directional Level Shifter (I2C, etc.) - TXS0102DCTR</t>
+  </si>
+  <si>
+    <t>adafruit :: JST_3PIN - EXTERNAL_SYNC</t>
+  </si>
+  <si>
+    <t>Resistor - 3.98K</t>
+  </si>
+  <si>
+    <t>8-Bit Bi-Directional Level Shifter - TXB0108PWR</t>
+  </si>
+  <si>
+    <t>C2,C3,C5,C16,C64,C6,C24,C27</t>
+  </si>
+  <si>
+    <t>C7,C9,C11,C13,C15,C18,C19,C21,C22,C23,C26,C29,C30,C32,C50,C51,C52,C54,C56,C58,C60,C61,C65,C70,C72</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/C0603C103K8RACTU/399-11132-1-ND/4357813</t>
+  </si>
+  <si>
+    <t>399-11132-1-ND</t>
+  </si>
+  <si>
+    <t>C0603C103K8RACTU</t>
+  </si>
+  <si>
+    <t>ADS1299IPAG - 8-Channel, 24-Bit Analog-To-Digital Converter With Integrated EEG Front End.</t>
+  </si>
+  <si>
+    <t>ADS1299IPAG</t>
+  </si>
+  <si>
+    <t>Quantity1</t>
+  </si>
+  <si>
+    <t>Quantity2</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/M20-9981046/952-2130-ND/3728094</t>
+  </si>
+  <si>
+    <t>952-2130-ND</t>
+  </si>
+  <si>
+    <t>M20-9981046</t>
+  </si>
+  <si>
+    <t>ï»¿Digi-Key Part Number</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>Customer Reference</t>
+  </si>
+  <si>
+    <t>Quantity 1</t>
+  </si>
+  <si>
+    <t>Quantity 2</t>
+  </si>
+  <si>
+    <t>Quantity 3</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>RoHS Status</t>
+  </si>
+  <si>
+    <t>Lead Free Status</t>
+  </si>
+  <si>
+    <t>REACH Status</t>
+  </si>
+  <si>
+    <t>SAMSUNG ELECTRO-MECHANICS AMERICA, INC (VA)</t>
+  </si>
+  <si>
+    <t>CAP CER 2.2UF 10V 10% X5R 0603</t>
+  </si>
+  <si>
+    <t>Alternate Packaging Exists</t>
+  </si>
+  <si>
+    <t>RoHS Compliant</t>
+  </si>
+  <si>
+    <t>Lead free</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>TAIYO YUDEN (VA)</t>
+  </si>
+  <si>
+    <t>CAP CER 100UF 10V 20% X5R 1210</t>
+  </si>
+  <si>
+    <t>Unaffected Nov-2009</t>
+  </si>
+  <si>
+    <t>KEMET (VA)</t>
+  </si>
+  <si>
+    <t>CAP CER 10000PF 10V 10% X7R 0603</t>
+  </si>
+  <si>
+    <t>TDK CORPORATION (VA)</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 10V 20% X5R 0603</t>
+  </si>
+  <si>
+    <t>Unaffected Apr-2011</t>
+  </si>
+  <si>
+    <t>MURATA ELECTRONICS (VA)</t>
+  </si>
+  <si>
+    <t>CAP CER 4700PF 50V 10% X7R 0603</t>
+  </si>
+  <si>
+    <t>Unaffected Jul-2011</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 10V 10% X5R 0603</t>
+  </si>
+  <si>
+    <t>Unaffected Jun-2012</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 10V 10% X7R 0603</t>
+  </si>
+  <si>
+    <t>OSRAM OPTO SEMICONDUCTORS INC(VA)</t>
+  </si>
+  <si>
+    <t>LED CHIPLED 645NM RED DIFF 1206</t>
+  </si>
+  <si>
+    <t>Unaffected Aug-2011</t>
+  </si>
+  <si>
+    <t>LITE-ON INC (VA)</t>
+  </si>
+  <si>
+    <t>LED WHITE YELLOW 260MCD 1206</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS (VA)</t>
+  </si>
+  <si>
+    <t>ADS1299IPAGR</t>
+  </si>
+  <si>
+    <t>IC AFE 24BIT 16KSPS LN 64TQFP</t>
+  </si>
+  <si>
+    <t>IC REG LDO -2.5V 0.2A SOT23-5</t>
+  </si>
+  <si>
+    <t>IC REG LDO 2.5V 0.25A SOT23-5</t>
+  </si>
+  <si>
+    <t>MICROCHIP TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>24AA256UID-I/SN</t>
+  </si>
+  <si>
+    <t>IC EEPROM 256KBIT 400KHZ 8SOIC</t>
+  </si>
+  <si>
+    <t>IC REG SWITCHED CAP INV SOT23-5</t>
+  </si>
+  <si>
+    <t>IC OPAMP GP 5.5MHZ RRO SOT23-5</t>
+  </si>
+  <si>
+    <t>IC VOLT-LVL TRANSL 2BIT BI SM8</t>
+  </si>
+  <si>
+    <t>JST SALES AMERICA INC</t>
+  </si>
+  <si>
+    <t>CONN HEADER PH SIDE 3POS 2MM</t>
+  </si>
+  <si>
+    <t>MOLEX CONNECTOR CORPORATION</t>
+  </si>
+  <si>
+    <t>CONN HEADER 30POS .100 R/A 15AU</t>
+  </si>
+  <si>
+    <t>Unaffected Dec-2009</t>
+  </si>
+  <si>
+    <t>HARWIN INC</t>
+  </si>
+  <si>
+    <t>DIL VERTICAL PC TAIL PIN HEADER</t>
+  </si>
+  <si>
+    <t>IC 8-BIT TRNSTR 15KV ESD 20TSSOP</t>
+  </si>
+  <si>
+    <t>2X12POS DIL VERTICAL PIN HEADER</t>
+  </si>
+  <si>
+    <t>TE CONNECTIVITY AMP</t>
+  </si>
+  <si>
+    <t>CONN HDR BRKWAY 20POS 2MM 30GOLD</t>
+  </si>
+  <si>
+    <t>Unaffected</t>
+  </si>
+  <si>
+    <t>INDUCTOR MULTILAYER 3.3UH 0603</t>
+  </si>
+  <si>
+    <t>PANASONIC ELECTRONIC COMPONENTS (VA)</t>
+  </si>
+  <si>
+    <t>RES 270 OHM 1/10W 1% 0603 SMD</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF3920V</t>
+  </si>
+  <si>
+    <t>RES 392 OHM 1/10W 1% 0603 SMD</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 1/10W 1% 0603 SMD</t>
+  </si>
+  <si>
+    <t>RES 2M OHM 1/10W 1% 0603 SMD</t>
+  </si>
+  <si>
+    <t>RES 4.99K OHM 1/10W 1% 0603 SMD</t>
   </si>
 </sst>
 </file>
@@ -740,7 +1041,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -749,6 +1050,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -794,7 +1107,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="36">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -814,6 +1127,18 @@
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -823,6 +1148,14 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ADS1299-shield-digikey-bom" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ADS1299-shield-1.0-final" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1147,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1162,605 +1495,602 @@
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="10" max="10" width="46.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="11" max="12" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="H1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="45">
+        <v>233</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I17" si="0">G2*H2</f>
-        <v>8</v>
+        <f>G2*H2</f>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
+        <v>154</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>G3*H3</f>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>85</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
+        <v>155</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <f>G4*H4</f>
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f>G5*H5</f>
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <f>G6*H6</f>
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f>G7*H7</f>
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="45">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6">
-        <v>26</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30">
-      <c r="A8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="H8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>G8*H8</f>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>76</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" t="s">
-        <v>90</v>
+        <v>196</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <f>G9*H9</f>
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f>G10*H10</f>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>199</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>117</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" t="s">
-        <v>109</v>
+        <v>195</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>G11*H11</f>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f>G12*H12</f>
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f>G13*H13</f>
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>211</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f>G14*H14</f>
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f>G15*H15</f>
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f>G16*H16</f>
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J13" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>8</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" t="s">
-        <v>92</v>
+      <c r="F17" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1769,331 +2099,352 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f>G17*H17</f>
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>209</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>201</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <f>G18*H18</f>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <f>G19*H19</f>
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <f>G20*H20</f>
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <f>G21*H21</f>
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>8</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ref="I19:I24" si="1">G19*H19</f>
-        <v>8</v>
-      </c>
-      <c r="J19" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>24</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="J20" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21">
-        <v>18689</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>8</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="J21" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" t="s">
-        <v>171</v>
-      </c>
-      <c r="E22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F22" t="s">
-        <v>136</v>
+        <v>194</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>G22*H22</f>
+        <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" t="s">
-        <v>138</v>
+        <v>166</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>G23*H23</f>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24">
-        <v>19950</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>G24*H24</f>
+        <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="K24" t="s">
+        <v>130</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25">
-        <v>19950</v>
+        <v>172</v>
+      </c>
+      <c r="E25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I36" si="2">G25*H25</f>
-        <v>36</v>
+        <f>G25*H25</f>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>187</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>G26*H26</f>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>32</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2102,34 +2453,34 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f>G27*H27</f>
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>28</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2138,274 +2489,301 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28" si="3">G28*H28</f>
+        <f>G28*H28</f>
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>205</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>G29*H29</f>
+        <v>36</v>
       </c>
       <c r="J29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>34</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" t="s">
-        <v>180</v>
-      </c>
-      <c r="F30" t="s">
-        <v>100</v>
+        <v>194</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>G30*H30</f>
+        <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="45">
+        <v>61</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" t="s">
-        <v>95</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2">
+        <v>18689</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
-        <v>36</v>
+        <f>G31*H31</f>
+        <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>90</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="45">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32">
-        <v>18677</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="2">
+        <v>19950</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <f>G32*H32</f>
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>180</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33">
+        <v>19950</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>36</v>
+      </c>
+      <c r="I33">
+        <f>G33*H33</f>
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>181</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34">
+        <v>18677</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>6</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="2"/>
+      <c r="I34">
+        <f>G34*H34</f>
         <v>6</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" t="s">
         <v>38</v>
       </c>
-      <c r="L32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="2" t="s">
+      <c r="K35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="B36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J36" t="s">
         <v>40</v>
       </c>
-      <c r="K33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="2" t="s">
+      <c r="K36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="B37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" t="s">
         <v>42</v>
       </c>
-      <c r="K34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J35" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" t="s">
-        <v>182</v>
-      </c>
-      <c r="F36" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>20</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="J36" t="s">
-        <v>79</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="K37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="B43" s="5"/>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="6"/>
-      <c r="B45" s="5"/>
+    <row r="44" spans="1:13">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="6"/>
+      <c r="B46" s="5"/>
     </row>
   </sheetData>
+  <sortState ref="A2:M37">
+    <sortCondition ref="F2:F37"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L4" r:id="rId2"/>
-    <hyperlink ref="L6" r:id="rId3"/>
-    <hyperlink ref="L7" r:id="rId4"/>
-    <hyperlink ref="L3" r:id="rId5"/>
-    <hyperlink ref="L5" r:id="rId6"/>
-    <hyperlink ref="L17" r:id="rId7"/>
-    <hyperlink ref="L31" r:id="rId8"/>
-    <hyperlink ref="L30" r:id="rId9"/>
-    <hyperlink ref="L27" r:id="rId10"/>
-    <hyperlink ref="L26" r:id="rId11"/>
-    <hyperlink ref="L10" r:id="rId12"/>
-    <hyperlink ref="L11" r:id="rId13"/>
-    <hyperlink ref="L12" r:id="rId14"/>
-    <hyperlink ref="L13" r:id="rId15"/>
-    <hyperlink ref="L14" r:id="rId16"/>
-    <hyperlink ref="L15" r:id="rId17"/>
-    <hyperlink ref="L16" r:id="rId18"/>
-    <hyperlink ref="L36" r:id="rId19"/>
-    <hyperlink ref="L18" r:id="rId20"/>
-    <hyperlink ref="L19" r:id="rId21"/>
-    <hyperlink ref="L20" r:id="rId22"/>
-    <hyperlink ref="L23" r:id="rId23"/>
-    <hyperlink ref="L22" r:id="rId24"/>
-    <hyperlink ref="L24" r:id="rId25"/>
-    <hyperlink ref="D9" r:id="rId26"/>
-    <hyperlink ref="D27" r:id="rId27"/>
-    <hyperlink ref="D29:D31" r:id="rId28" display="Panasonic Electronic Components"/>
-    <hyperlink ref="D28" r:id="rId29"/>
-    <hyperlink ref="L29" r:id="rId30"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M16" r:id="rId2"/>
+    <hyperlink ref="M14" r:id="rId3"/>
+    <hyperlink ref="M12" r:id="rId4"/>
+    <hyperlink ref="M20" r:id="rId5"/>
+    <hyperlink ref="M19" r:id="rId6"/>
+    <hyperlink ref="M17" r:id="rId7"/>
+    <hyperlink ref="M29" r:id="rId8"/>
+    <hyperlink ref="M26" r:id="rId9"/>
+    <hyperlink ref="M27" r:id="rId10"/>
+    <hyperlink ref="M15" r:id="rId11"/>
+    <hyperlink ref="M11" r:id="rId12"/>
+    <hyperlink ref="M6" r:id="rId13"/>
+    <hyperlink ref="M7" r:id="rId14"/>
+    <hyperlink ref="M4" r:id="rId15"/>
+    <hyperlink ref="M5" r:id="rId16"/>
+    <hyperlink ref="M10" r:id="rId17"/>
+    <hyperlink ref="M9" r:id="rId18"/>
+    <hyperlink ref="M8" r:id="rId19"/>
+    <hyperlink ref="M30" r:id="rId20"/>
+    <hyperlink ref="M22" r:id="rId21"/>
+    <hyperlink ref="M21" r:id="rId22"/>
+    <hyperlink ref="M24" r:id="rId23"/>
+    <hyperlink ref="M32" r:id="rId24"/>
+    <hyperlink ref="D3" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D30:D32" r:id="rId27" display="Panasonic Electronic Components"/>
+    <hyperlink ref="D28" r:id="rId28"/>
+    <hyperlink ref="M25" r:id="rId29"/>
+    <hyperlink ref="M34" r:id="rId30"/>
+    <hyperlink ref="M13" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2419,10 +2797,1078 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" t="s">
+        <v>250</v>
+      </c>
+      <c r="K5" t="s">
+        <v>251</v>
+      </c>
+      <c r="L5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J6" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I8" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J9" t="s">
+        <v>250</v>
+      </c>
+      <c r="K9" t="s">
+        <v>251</v>
+      </c>
+      <c r="L9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I10" t="s">
+        <v>249</v>
+      </c>
+      <c r="J10" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I11" t="s">
+        <v>249</v>
+      </c>
+      <c r="J11" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11" t="s">
+        <v>251</v>
+      </c>
+      <c r="L11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K12" t="s">
+        <v>251</v>
+      </c>
+      <c r="L12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>257</v>
+      </c>
+      <c r="I13" t="s">
+        <v>249</v>
+      </c>
+      <c r="J13" t="s">
+        <v>250</v>
+      </c>
+      <c r="K13" t="s">
+        <v>251</v>
+      </c>
+      <c r="L13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>264</v>
+      </c>
+      <c r="I14" t="s">
+        <v>249</v>
+      </c>
+      <c r="J14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K14" t="s">
+        <v>251</v>
+      </c>
+      <c r="L14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>295</v>
+      </c>
+      <c r="I15" t="s">
+        <v>249</v>
+      </c>
+      <c r="J15" t="s">
+        <v>250</v>
+      </c>
+      <c r="K15" t="s">
+        <v>251</v>
+      </c>
+      <c r="L15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" t="s">
+        <v>249</v>
+      </c>
+      <c r="J16" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16" t="s">
+        <v>251</v>
+      </c>
+      <c r="L16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>284</v>
+      </c>
+      <c r="J17" t="s">
+        <v>250</v>
+      </c>
+      <c r="K17" t="s">
+        <v>251</v>
+      </c>
+      <c r="L17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>268</v>
+      </c>
+      <c r="I18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J18" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" t="s">
+        <v>251</v>
+      </c>
+      <c r="L18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" t="s">
+        <v>250</v>
+      </c>
+      <c r="K19" t="s">
+        <v>251</v>
+      </c>
+      <c r="L19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>254</v>
+      </c>
+      <c r="I20" t="s">
+        <v>249</v>
+      </c>
+      <c r="J20" t="s">
+        <v>250</v>
+      </c>
+      <c r="K20" t="s">
+        <v>251</v>
+      </c>
+      <c r="L20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>291</v>
+      </c>
+      <c r="J21" t="s">
+        <v>250</v>
+      </c>
+      <c r="K21" t="s">
+        <v>251</v>
+      </c>
+      <c r="L21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>289</v>
+      </c>
+      <c r="J22" t="s">
+        <v>250</v>
+      </c>
+      <c r="K22" t="s">
+        <v>251</v>
+      </c>
+      <c r="L22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J23" t="s">
+        <v>250</v>
+      </c>
+      <c r="K23" t="s">
+        <v>251</v>
+      </c>
+      <c r="L23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>293</v>
+      </c>
+      <c r="J24" t="s">
+        <v>250</v>
+      </c>
+      <c r="K24" t="s">
+        <v>251</v>
+      </c>
+      <c r="L24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>300</v>
+      </c>
+      <c r="I25" t="s">
+        <v>249</v>
+      </c>
+      <c r="J25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>301</v>
+      </c>
+      <c r="I26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" t="s">
+        <v>251</v>
+      </c>
+      <c r="L26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>297</v>
+      </c>
+      <c r="I27" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>299</v>
+      </c>
+      <c r="I28" t="s">
+        <v>249</v>
+      </c>
+      <c r="J28" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" t="s">
+        <v>251</v>
+      </c>
+      <c r="L28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>302</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>286</v>
+      </c>
+      <c r="J30" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" t="s">
+        <v>251</v>
+      </c>
+      <c r="L30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:L30">
+    <sortCondition ref="A2:A30"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2434,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2445,15 +3891,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -2464,18 +3910,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -2486,7 +3932,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2497,7 +3943,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2508,20 +3954,20 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="10">
         <f>SUM(B5:B9)</f>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="10">
         <f>SUM(C5:C9)</f>
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B15">
         <v>0.5</v>
@@ -2532,20 +3978,20 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B17" s="10">
         <f>B11+B11*B15</f>
-        <v>187.5</v>
+        <v>189</v>
       </c>
       <c r="C17" s="10">
         <f>C11+C11*C15</f>
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -2556,15 +4002,15 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B20">
         <f>B17+B17*B18</f>
-        <v>281.25</v>
+        <v>283.5</v>
       </c>
       <c r="C20">
         <f>C17+C17*C18</f>
-        <v>243</v>
+        <v>247.5</v>
       </c>
     </row>
   </sheetData>
@@ -2578,7 +4024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2593,25 +4039,25 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B2" s="8">
-        <f>SUMIF(BOM!B2:B36,"=SMT",BOM!G2:G36)</f>
+        <f>SUMIF(BOM!B2:B37,"=SMT",BOM!G2:G37)</f>
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B3" s="8">
-        <f>SUMIF(BOM!B3:B37,"=TH",BOM!G3:G37)</f>
+        <f>SUMIF(BOM!B3:B38,"=TH",BOM!G3:G38)</f>
         <v>14</v>
       </c>
     </row>
@@ -2621,13 +4067,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B6" s="8">
         <v>148</v>
@@ -2635,7 +4081,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B7" s="8">
         <v>115</v>
@@ -2643,19 +4089,19 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B9">
-        <f>COUNT(BOM!G2:G36)</f>
-        <v>32</v>
+        <f>COUNT(BOM!G2:G37)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B10">
-        <f>SUM(BOM!G2:G37)</f>
+        <f>SUM(BOM!G2:G38)</f>
         <v>130</v>
       </c>
       <c r="C10" s="2"/>
@@ -2670,4 +4116,695 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(A2=B2,"equal","not")</f>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C30" si="0">IF(A3=B3,"equal","not")</f>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/cam/ADS1299-shield-bom.xlsx
+++ b/cam/ADS1299-shield-bom.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="6" r:id="rId1"/>
-    <sheet name="Digikey1" sheetId="9" r:id="rId2"/>
-    <sheet name="Cost Estimator" sheetId="5" r:id="rId3"/>
-    <sheet name="Stats" sheetId="7" r:id="rId4"/>
-    <sheet name="SandSquid1" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
+    <sheet name="Cost Estimator" sheetId="5" r:id="rId2"/>
+    <sheet name="Stats" sheetId="7" r:id="rId3"/>
+    <sheet name="SandSquid1" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId5"/>
+    <sheet name="Manufacturing" sheetId="15" r:id="rId6"/>
+    <sheet name="Place" sheetId="16" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="ADS1299_shield_1.0_final" localSheetId="4">SandSquid1!$A$1:$D$25</definedName>
-    <definedName name="ADS1299_shield_digikey_bom" localSheetId="1">Digikey1!$A$1:$L$30</definedName>
+    <definedName name="ADS1299_shield_1.0_final" localSheetId="3">SandSquid1!$A$1:$D$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Place!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="253">
   <si>
     <t>Reference</t>
   </si>
@@ -282,12 +283,6 @@
     <t>1206</t>
   </si>
   <si>
-    <t>587-1965-1-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/LMK325BJ107MM-T/587-1965-1-ND/1646628</t>
-  </si>
-  <si>
     <t>1210</t>
   </si>
   <si>
@@ -450,12 +445,6 @@
     <t>952-1917-ND</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-search/en?pv88=34&amp;FV=fff40016%2Cfff80370%2C7004d3&amp;k=header&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=0&amp;page=1&amp;stock=1&amp;quantity=0&amp;ptm=0&amp;fid=0&amp;pageSize=100</t>
-  </si>
-  <si>
-    <t>must use part of 1x20 breakaway headers to be affordable</t>
-  </si>
-  <si>
     <t>http://www.4uconnector.com/online/SearchPro.asp?FormName=ProSearch&amp;FormAction=search&amp;s_GroupNo=&amp;s_keyword=18689</t>
   </si>
   <si>
@@ -489,12 +478,6 @@
     <t>Samsung Electro-Mechanics America, Inc</t>
   </si>
   <si>
-    <t>LMK325BJ107MM-T</t>
-  </si>
-  <si>
-    <t>Taiyo Yuden</t>
-  </si>
-  <si>
     <t>C1608X5R1A106M080AC</t>
   </si>
   <si>
@@ -567,12 +550,6 @@
     <t>M20-9981246</t>
   </si>
   <si>
-    <t>5176264-9</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
     <t>MLF1608A3R3K</t>
   </si>
   <si>
@@ -627,12 +604,6 @@
     <t>end user cost</t>
   </si>
   <si>
-    <t>Conservative</t>
-  </si>
-  <si>
-    <t>Bigger</t>
-  </si>
-  <si>
     <t>BOM line items</t>
   </si>
   <si>
@@ -774,209 +745,92 @@
     <t>M20-9981046</t>
   </si>
   <si>
-    <t>ï»¿Digi-Key Part Number</t>
-  </si>
-  <si>
-    <t>Manufacturer Part Number</t>
-  </si>
-  <si>
-    <t>Customer Reference</t>
-  </si>
-  <si>
-    <t>Quantity 1</t>
-  </si>
-  <si>
-    <t>Quantity 2</t>
-  </si>
-  <si>
-    <t>Quantity 3</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>RoHS Status</t>
-  </si>
-  <si>
-    <t>Lead Free Status</t>
-  </si>
-  <si>
-    <t>REACH Status</t>
-  </si>
-  <si>
-    <t>SAMSUNG ELECTRO-MECHANICS AMERICA, INC (VA)</t>
-  </si>
-  <si>
-    <t>CAP CER 2.2UF 10V 10% X5R 0603</t>
-  </si>
-  <si>
-    <t>Alternate Packaging Exists</t>
-  </si>
-  <si>
-    <t>RoHS Compliant</t>
-  </si>
-  <si>
-    <t>Lead free</t>
-  </si>
-  <si>
-    <t>Not Available</t>
-  </si>
-  <si>
-    <t>TAIYO YUDEN (VA)</t>
-  </si>
-  <si>
-    <t>CAP CER 100UF 10V 20% X5R 1210</t>
-  </si>
-  <si>
-    <t>Unaffected Nov-2009</t>
-  </si>
-  <si>
-    <t>KEMET (VA)</t>
-  </si>
-  <si>
-    <t>CAP CER 10000PF 10V 10% X7R 0603</t>
-  </si>
-  <si>
-    <t>TDK CORPORATION (VA)</t>
-  </si>
-  <si>
-    <t>CAP CER 10UF 10V 20% X5R 0603</t>
-  </si>
-  <si>
-    <t>Unaffected Apr-2011</t>
-  </si>
-  <si>
-    <t>MURATA ELECTRONICS (VA)</t>
-  </si>
-  <si>
-    <t>CAP CER 4700PF 50V 10% X7R 0603</t>
-  </si>
-  <si>
-    <t>Unaffected Jul-2011</t>
-  </si>
-  <si>
-    <t>CAP CER 1UF 10V 10% X5R 0603</t>
-  </si>
-  <si>
-    <t>Unaffected Jun-2012</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 10V 10% X7R 0603</t>
-  </si>
-  <si>
-    <t>OSRAM OPTO SEMICONDUCTORS INC(VA)</t>
-  </si>
-  <si>
-    <t>LED CHIPLED 645NM RED DIFF 1206</t>
-  </si>
-  <si>
-    <t>Unaffected Aug-2011</t>
-  </si>
-  <si>
-    <t>LITE-ON INC (VA)</t>
-  </si>
-  <si>
-    <t>LED WHITE YELLOW 260MCD 1206</t>
-  </si>
-  <si>
-    <t>TEXAS INSTRUMENTS (VA)</t>
-  </si>
-  <si>
-    <t>ADS1299IPAGR</t>
-  </si>
-  <si>
-    <t>IC AFE 24BIT 16KSPS LN 64TQFP</t>
-  </si>
-  <si>
-    <t>IC REG LDO -2.5V 0.2A SOT23-5</t>
-  </si>
-  <si>
-    <t>IC REG LDO 2.5V 0.25A SOT23-5</t>
-  </si>
-  <si>
-    <t>MICROCHIP TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>24AA256UID-I/SN</t>
-  </si>
-  <si>
-    <t>IC EEPROM 256KBIT 400KHZ 8SOIC</t>
-  </si>
-  <si>
-    <t>IC REG SWITCHED CAP INV SOT23-5</t>
-  </si>
-  <si>
-    <t>IC OPAMP GP 5.5MHZ RRO SOT23-5</t>
-  </si>
-  <si>
-    <t>IC VOLT-LVL TRANSL 2BIT BI SM8</t>
-  </si>
-  <si>
-    <t>JST SALES AMERICA INC</t>
-  </si>
-  <si>
-    <t>CONN HEADER PH SIDE 3POS 2MM</t>
-  </si>
-  <si>
-    <t>MOLEX CONNECTOR CORPORATION</t>
-  </si>
-  <si>
-    <t>CONN HEADER 30POS .100 R/A 15AU</t>
-  </si>
-  <si>
-    <t>Unaffected Dec-2009</t>
-  </si>
-  <si>
-    <t>HARWIN INC</t>
-  </si>
-  <si>
-    <t>DIL VERTICAL PC TAIL PIN HEADER</t>
-  </si>
-  <si>
-    <t>IC 8-BIT TRNSTR 15KV ESD 20TSSOP</t>
-  </si>
-  <si>
-    <t>2X12POS DIL VERTICAL PIN HEADER</t>
-  </si>
-  <si>
-    <t>TE CONNECTIVITY AMP</t>
-  </si>
-  <si>
-    <t>CONN HDR BRKWAY 20POS 2MM 30GOLD</t>
-  </si>
-  <si>
-    <t>Unaffected</t>
-  </si>
-  <si>
-    <t>INDUCTOR MULTILAYER 3.3UH 0603</t>
-  </si>
-  <si>
-    <t>PANASONIC ELECTRONIC COMPONENTS (VA)</t>
-  </si>
-  <si>
-    <t>RES 270 OHM 1/10W 1% 0603 SMD</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF3920V</t>
-  </si>
-  <si>
-    <t>RES 392 OHM 1/10W 1% 0603 SMD</t>
-  </si>
-  <si>
-    <t>RES 10K OHM 1/10W 1% 0603 SMD</t>
-  </si>
-  <si>
-    <t>RES 2M OHM 1/10W 1% 0603 SMD</t>
-  </si>
-  <si>
-    <t>RES 4.99K OHM 1/10W 1% 0603 SMD</t>
+    <t>http://www.digikey.com/product-detail/en/CL32A107MPVNNNE/1276-3364-1-ND/3891450</t>
+  </si>
+  <si>
+    <t>1276-3364-1-ND</t>
+  </si>
+  <si>
+    <t>CL32A107MPVNNNE</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/5-146280-3/5-146280-3-ND/2275898</t>
+  </si>
+  <si>
+    <t>Digi-Key Part Number</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Schippers</t>
+  </si>
+  <si>
+    <t>NRE</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>fully loaded</t>
+  </si>
+  <si>
+    <t>952-2264-ND</t>
+  </si>
+  <si>
+    <t>M20-9990346</t>
+  </si>
+  <si>
+    <t>Seeed small</t>
+  </si>
+  <si>
+    <t>Seeed lg</t>
+  </si>
+  <si>
+    <t>Schippers small</t>
+  </si>
+  <si>
+    <t>Schippers lg</t>
+  </si>
+  <si>
+    <t>Advanced Assembly</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>HackEEG Shield v1.0</t>
+  </si>
+  <si>
+    <t>455-1750-1-ND</t>
+  </si>
+  <si>
+    <t>S3B-PH-SM4-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>?? 3? C15 in twice</t>
+  </si>
+  <si>
+    <t>445-6394-1-ND</t>
+  </si>
+  <si>
+    <t>MLZ2012A3R3W</t>
+  </si>
+  <si>
+    <t>0805</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1023,16 +877,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1040,8 +919,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1078,8 +985,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1106,8 +1050,45 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="36">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1139,6 +1120,43 @@
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1151,10 +1169,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ADS1299-shield-digikey-bom" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ADS1299-shield-1.0-final" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -1482,13 +1496,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="53.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="2" customWidth="1"/>
@@ -1503,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>70</v>
@@ -1518,13 +1532,13 @@
         <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -1533,7 +1547,7 @@
         <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M1" t="s">
         <v>52</v>
@@ -1541,19 +1555,19 @@
     </row>
     <row r="2" spans="1:13" ht="45">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>51</v>
@@ -1565,142 +1579,145 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <f>G2*H2</f>
+        <f t="shared" ref="I2:I34" si="0">G2*H2</f>
         <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
+      <c r="K2" t="s">
+        <v>249</v>
+      </c>
       <c r="M2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" t="s">
+        <v>228</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <f>G3*H3</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>86</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <f>G4*H4</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <f>G5*H5</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1709,34 +1726,34 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f>G6*H6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1745,80 +1762,80 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <f>G7*H7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8">
+      <c r="B9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>20</v>
       </c>
-      <c r="I8">
-        <f>G8*H8</f>
+      <c r="I9">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <f>G9*H9</f>
-        <v>8</v>
-      </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>119</v>
@@ -1826,307 +1843,307 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <f>G10*H10</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11">
+      <c r="B12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>64</v>
       </c>
-      <c r="I11">
-        <f>G11*H11</f>
+      <c r="I12">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="J11" t="s">
-        <v>230</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <f>G12*H12</f>
-        <v>26</v>
-      </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
-        <f>G13*H13</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="G14">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <f>G14*H14</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>57</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
+      <c r="A15" t="s">
+        <v>216</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" t="s">
-        <v>102</v>
+      <c r="D15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <f>G15*H15</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>252</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <f>G16*H16</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <f>G17*H17</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" t="s">
+        <v>247</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2135,89 +2152,89 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <f>G18*H18</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>8</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30">
+      <c r="A19" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>79</v>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <f>G19*H19</f>
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
         <v>77</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G20">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <f>G20*H20</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2225,16 +2242,16 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>128</v>
+        <v>184</v>
+      </c>
+      <c r="D21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" t="s">
+        <v>126</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2243,14 +2260,14 @@
         <v>24</v>
       </c>
       <c r="I21">
-        <f>G21*H21</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="J21" t="s">
         <v>60</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2258,16 +2275,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>126</v>
+        <v>184</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>124</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2276,14 +2293,14 @@
         <v>8</v>
       </c>
       <c r="I22">
-        <f>G22*H22</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2291,16 +2308,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>235</v>
+        <v>160</v>
+      </c>
+      <c r="E23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2309,50 +2326,47 @@
         <v>20</v>
       </c>
       <c r="I23">
-        <f>G23*H23</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>133</v>
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>238</v>
+      </c>
+      <c r="F24" t="s">
+        <v>237</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <f>G24*H24</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="J24" t="s">
         <v>62</v>
       </c>
-      <c r="K24" t="s">
-        <v>130</v>
-      </c>
       <c r="M24" s="3" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2360,19 +2374,19 @@
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2381,14 +2395,14 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <f>G25*H25</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J25" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2396,19 +2410,19 @@
         <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2417,14 +2431,14 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <f>G26*H26</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>32</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2432,19 +2446,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2453,34 +2467,34 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <f>G27*H27</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>28</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2489,34 +2503,34 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <f>G28*H28</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G29">
         <v>18</v>
@@ -2525,14 +2539,14 @@
         <v>2</v>
       </c>
       <c r="I29">
-        <f>G29*H29</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="J29" t="s">
         <v>34</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2540,16 +2554,16 @@
         <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2558,22 +2572,22 @@
         <v>30</v>
       </c>
       <c r="I30">
-        <f>G30*H30</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="J30" t="s">
         <v>61</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>65</v>
@@ -2589,22 +2603,22 @@
         <v>8</v>
       </c>
       <c r="I31">
-        <f>G31*H31</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -2620,22 +2634,22 @@
         <v>10</v>
       </c>
       <c r="I32">
-        <f>G32*H32</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>71</v>
@@ -2653,14 +2667,14 @@
         <v>36</v>
       </c>
       <c r="I33">
-        <f>G33*H33</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="J33" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2668,7 +2682,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>65</v>
@@ -2683,14 +2697,14 @@
         <v>6</v>
       </c>
       <c r="I34">
-        <f>G34*H34</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J34" t="s">
         <v>36</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2698,13 +2712,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J35" t="s">
         <v>38</v>
       </c>
       <c r="K35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2712,13 +2726,13 @@
         <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J36" t="s">
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2726,13 +2740,13 @@
         <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2754,36 +2768,35 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="M16" r:id="rId2"/>
-    <hyperlink ref="M14" r:id="rId3"/>
-    <hyperlink ref="M12" r:id="rId4"/>
-    <hyperlink ref="M20" r:id="rId5"/>
-    <hyperlink ref="M19" r:id="rId6"/>
-    <hyperlink ref="M17" r:id="rId7"/>
+    <hyperlink ref="M17" r:id="rId2"/>
+    <hyperlink ref="M15" r:id="rId3"/>
+    <hyperlink ref="M13" r:id="rId4"/>
+    <hyperlink ref="M3" r:id="rId5" display="http://www.digikey.com/product-detail/en/LMK325BJ107MM-T/587-1965-1-ND/1646628"/>
+    <hyperlink ref="M20" r:id="rId6"/>
+    <hyperlink ref="M18" r:id="rId7"/>
     <hyperlink ref="M29" r:id="rId8"/>
     <hyperlink ref="M26" r:id="rId9"/>
     <hyperlink ref="M27" r:id="rId10"/>
-    <hyperlink ref="M15" r:id="rId11"/>
-    <hyperlink ref="M11" r:id="rId12"/>
-    <hyperlink ref="M6" r:id="rId13"/>
-    <hyperlink ref="M7" r:id="rId14"/>
-    <hyperlink ref="M4" r:id="rId15"/>
-    <hyperlink ref="M5" r:id="rId16"/>
-    <hyperlink ref="M10" r:id="rId17"/>
-    <hyperlink ref="M9" r:id="rId18"/>
-    <hyperlink ref="M8" r:id="rId19"/>
+    <hyperlink ref="M16" r:id="rId11"/>
+    <hyperlink ref="M12" r:id="rId12"/>
+    <hyperlink ref="M7" r:id="rId13"/>
+    <hyperlink ref="M8" r:id="rId14"/>
+    <hyperlink ref="M5" r:id="rId15"/>
+    <hyperlink ref="M6" r:id="rId16"/>
+    <hyperlink ref="M11" r:id="rId17"/>
+    <hyperlink ref="M10" r:id="rId18"/>
+    <hyperlink ref="M9" r:id="rId19"/>
     <hyperlink ref="M30" r:id="rId20"/>
     <hyperlink ref="M22" r:id="rId21"/>
     <hyperlink ref="M21" r:id="rId22"/>
-    <hyperlink ref="M24" r:id="rId23"/>
-    <hyperlink ref="M32" r:id="rId24"/>
-    <hyperlink ref="D3" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D30:D32" r:id="rId27" display="Panasonic Electronic Components"/>
-    <hyperlink ref="D28" r:id="rId28"/>
-    <hyperlink ref="M25" r:id="rId29"/>
-    <hyperlink ref="M34" r:id="rId30"/>
-    <hyperlink ref="M13" r:id="rId31"/>
+    <hyperlink ref="M32" r:id="rId23"/>
+    <hyperlink ref="D4" r:id="rId24"/>
+    <hyperlink ref="D27" r:id="rId25"/>
+    <hyperlink ref="D30:D32" r:id="rId26" display="Panasonic Electronic Components"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="M25" r:id="rId28"/>
+    <hyperlink ref="M34" r:id="rId29"/>
+    <hyperlink ref="M14" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2797,1062 +2810,266 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>239</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C4" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D4" t="s">
         <v>241</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E4" t="s">
         <v>242</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="F4" t="s">
         <v>243</v>
       </c>
-      <c r="J1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K2" t="s">
-        <v>251</v>
-      </c>
-      <c r="L2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>271</v>
-      </c>
-      <c r="I3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K3" t="s">
-        <v>251</v>
-      </c>
-      <c r="L3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>279</v>
-      </c>
-      <c r="J4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K4" t="s">
-        <v>251</v>
-      </c>
-      <c r="L4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" t="s">
-        <v>159</v>
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I5" t="s">
-        <v>249</v>
-      </c>
-      <c r="J5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K5" t="s">
-        <v>251</v>
-      </c>
-      <c r="L5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" t="s">
-        <v>156</v>
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>76</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>275</v>
-      </c>
-      <c r="I6" t="s">
-        <v>249</v>
-      </c>
-      <c r="J6" t="s">
-        <v>250</v>
-      </c>
-      <c r="K6" t="s">
-        <v>251</v>
-      </c>
-      <c r="L6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" t="s">
-        <v>157</v>
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>44</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>276</v>
-      </c>
-      <c r="I7" t="s">
-        <v>249</v>
-      </c>
-      <c r="J7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C8" t="s">
-        <v>176</v>
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I8" t="s">
-        <v>249</v>
-      </c>
-      <c r="J8" t="s">
-        <v>250</v>
-      </c>
-      <c r="K8" t="s">
-        <v>251</v>
-      </c>
-      <c r="L8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C9" t="s">
-        <v>161</v>
+        <v>175</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>282</v>
-      </c>
-      <c r="I9" t="s">
-        <v>249</v>
-      </c>
-      <c r="J9" t="s">
-        <v>250</v>
-      </c>
-      <c r="K9" t="s">
-        <v>251</v>
-      </c>
-      <c r="L9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>281</v>
-      </c>
-      <c r="I10" t="s">
-        <v>249</v>
-      </c>
-      <c r="J10" t="s">
-        <v>250</v>
-      </c>
-      <c r="K10" t="s">
-        <v>251</v>
-      </c>
-      <c r="L10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" t="s">
-        <v>273</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>274</v>
-      </c>
-      <c r="I11" t="s">
-        <v>249</v>
-      </c>
-      <c r="J11" t="s">
-        <v>250</v>
-      </c>
-      <c r="K11" t="s">
-        <v>251</v>
-      </c>
-      <c r="L11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>266</v>
-      </c>
-      <c r="I12" t="s">
-        <v>249</v>
-      </c>
-      <c r="J12" t="s">
-        <v>250</v>
-      </c>
-      <c r="K12" t="s">
-        <v>251</v>
-      </c>
-      <c r="L12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>257</v>
-      </c>
-      <c r="I13" t="s">
-        <v>249</v>
-      </c>
-      <c r="J13" t="s">
-        <v>250</v>
-      </c>
-      <c r="K13" t="s">
-        <v>251</v>
-      </c>
-      <c r="L13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14">
-        <v>25</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>264</v>
-      </c>
-      <c r="I14" t="s">
-        <v>249</v>
-      </c>
-      <c r="J14" t="s">
-        <v>250</v>
-      </c>
-      <c r="K14" t="s">
-        <v>251</v>
-      </c>
-      <c r="L14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>44</v>
+      </c>
+      <c r="B11" s="10">
+        <f>SUM(B5:B9)</f>
+        <v>126</v>
+      </c>
+      <c r="C11" s="10">
+        <f>SUM(C5:C9)</f>
+        <v>110</v>
+      </c>
+      <c r="D11" s="10">
+        <f>SUM(D5:D9)</f>
+        <v>135</v>
+      </c>
+      <c r="E11" s="10">
+        <f>SUM(E5:E9)</f>
+        <v>125</v>
+      </c>
+      <c r="F11" s="10">
+        <f>SUM(F5:F9)</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15" t="s">
-        <v>170</v>
+        <v>176</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>0.4</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>295</v>
-      </c>
-      <c r="I15" t="s">
-        <v>249</v>
-      </c>
-      <c r="J15" t="s">
-        <v>250</v>
-      </c>
-      <c r="K15" t="s">
-        <v>251</v>
-      </c>
-      <c r="L15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>259</v>
-      </c>
-      <c r="I16" t="s">
-        <v>249</v>
-      </c>
-      <c r="J16" t="s">
-        <v>250</v>
-      </c>
-      <c r="K16" t="s">
-        <v>251</v>
-      </c>
-      <c r="L16" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>284</v>
-      </c>
-      <c r="J17" t="s">
-        <v>250</v>
-      </c>
-      <c r="K17" t="s">
-        <v>251</v>
-      </c>
-      <c r="L17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>177</v>
+      </c>
+      <c r="B17" s="10">
+        <f>B11+B11*B15</f>
+        <v>189</v>
+      </c>
+      <c r="C17" s="10">
+        <f>C11+C11*C15</f>
+        <v>165</v>
+      </c>
+      <c r="D17" s="10">
+        <f>D11+D11*D15</f>
+        <v>189</v>
+      </c>
+      <c r="E17" s="10">
+        <f>E11+E11*E15</f>
+        <v>175</v>
+      </c>
+      <c r="F17" s="10">
+        <f>F11+F11*F15</f>
+        <v>173.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" t="s">
-        <v>151</v>
+        <v>178</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>0.4</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>268</v>
-      </c>
-      <c r="I18" t="s">
-        <v>249</v>
-      </c>
-      <c r="J18" t="s">
-        <v>250</v>
-      </c>
-      <c r="K18" t="s">
-        <v>251</v>
-      </c>
-      <c r="L18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19">
-        <v>17</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>262</v>
-      </c>
-      <c r="I19" t="s">
-        <v>249</v>
-      </c>
-      <c r="J19" t="s">
-        <v>250</v>
-      </c>
-      <c r="K19" t="s">
-        <v>251</v>
-      </c>
-      <c r="L19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" t="s">
-        <v>142</v>
+        <v>179</v>
+      </c>
+      <c r="B20">
+        <f>B17+B17*B18</f>
+        <v>283.5</v>
+      </c>
+      <c r="C20">
+        <f>C17+C17*C18</f>
+        <v>247.5</v>
+      </c>
+      <c r="D20">
+        <f>D17+D17*D18</f>
+        <v>264.60000000000002</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <f>E17+E17*E18</f>
+        <v>245</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>254</v>
-      </c>
-      <c r="I20" t="s">
-        <v>249</v>
-      </c>
-      <c r="J20" t="s">
-        <v>250</v>
-      </c>
-      <c r="K20" t="s">
-        <v>251</v>
-      </c>
-      <c r="L20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>291</v>
-      </c>
-      <c r="J21" t="s">
-        <v>250</v>
-      </c>
-      <c r="K21" t="s">
-        <v>251</v>
-      </c>
-      <c r="L21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" t="s">
-        <v>288</v>
-      </c>
-      <c r="C22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>289</v>
-      </c>
-      <c r="J22" t="s">
-        <v>250</v>
-      </c>
-      <c r="K22" t="s">
-        <v>251</v>
-      </c>
-      <c r="L22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>235</v>
-      </c>
-      <c r="B23" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>289</v>
-      </c>
-      <c r="J23" t="s">
-        <v>250</v>
-      </c>
-      <c r="K23" t="s">
-        <v>251</v>
-      </c>
-      <c r="L23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>293</v>
-      </c>
-      <c r="J24" t="s">
-        <v>250</v>
-      </c>
-      <c r="K24" t="s">
-        <v>251</v>
-      </c>
-      <c r="L24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" t="s">
-        <v>296</v>
-      </c>
-      <c r="C25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>300</v>
-      </c>
-      <c r="I25" t="s">
-        <v>249</v>
-      </c>
-      <c r="J25" t="s">
-        <v>250</v>
-      </c>
-      <c r="K25" t="s">
-        <v>251</v>
-      </c>
-      <c r="L25" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" t="s">
-        <v>296</v>
-      </c>
-      <c r="C26" t="s">
-        <v>174</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>301</v>
-      </c>
-      <c r="I26" t="s">
-        <v>249</v>
-      </c>
-      <c r="J26" t="s">
-        <v>250</v>
-      </c>
-      <c r="K26" t="s">
-        <v>251</v>
-      </c>
-      <c r="L26" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" t="s">
-        <v>296</v>
-      </c>
-      <c r="C27" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>297</v>
-      </c>
-      <c r="I27" t="s">
-        <v>249</v>
-      </c>
-      <c r="J27" t="s">
-        <v>250</v>
-      </c>
-      <c r="K27" t="s">
-        <v>251</v>
-      </c>
-      <c r="L27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>204</v>
-      </c>
-      <c r="B28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>299</v>
-      </c>
-      <c r="I28" t="s">
-        <v>249</v>
-      </c>
-      <c r="J28" t="s">
-        <v>250</v>
-      </c>
-      <c r="K28" t="s">
-        <v>251</v>
-      </c>
-      <c r="L28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>296</v>
-      </c>
-      <c r="C29" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29">
-        <v>18</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>302</v>
-      </c>
-      <c r="I29" t="s">
-        <v>249</v>
-      </c>
-      <c r="J29" t="s">
-        <v>250</v>
-      </c>
-      <c r="K29" t="s">
-        <v>251</v>
-      </c>
-      <c r="L29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>285</v>
-      </c>
-      <c r="C30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>286</v>
-      </c>
-      <c r="J30" t="s">
-        <v>250</v>
-      </c>
-      <c r="K30" t="s">
-        <v>251</v>
-      </c>
-      <c r="L30" t="s">
-        <v>287</v>
+        <f>F17+F17*F18</f>
+        <v>243.04</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L30">
-    <sortCondition ref="A2:A30"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3864,167 +3081,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>76</v>
-      </c>
-      <c r="C6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="10">
-        <f>SUM(B5:B9)</f>
-        <v>126</v>
-      </c>
-      <c r="C11" s="10">
-        <f>SUM(C5:C9)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15">
-        <v>0.5</v>
-      </c>
-      <c r="C15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="10">
-        <f>B11+B11*B15</f>
-        <v>189</v>
-      </c>
-      <c r="C17" s="10">
-        <f>C11+C11*C15</f>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18">
-        <v>0.5</v>
-      </c>
-      <c r="C18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20">
-        <f>B17+B17*B18</f>
-        <v>283.5</v>
-      </c>
-      <c r="C20">
-        <f>C17+C17*C18</f>
-        <v>247.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -4039,13 +3095,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B2" s="8">
         <f>SUMIF(BOM!B2:B37,"=SMT",BOM!G2:G37)</f>
@@ -4054,11 +3110,11 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="8">
         <f>SUMIF(BOM!B3:B38,"=TH",BOM!G3:G38)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4067,13 +3123,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B6" s="8">
         <v>148</v>
@@ -4081,7 +3137,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B7" s="8">
         <v>115</v>
@@ -4089,7 +3145,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <f>COUNT(BOM!G2:G37)</f>
@@ -4098,11 +3154,11 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B10">
         <f>SUM(BOM!G2:G38)</f>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4118,7 +3174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -4150,7 +3206,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -4161,7 +3217,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4172,7 +3228,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -4183,13 +3239,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4205,7 +3261,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -4216,7 +3272,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -4227,24 +3283,24 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4255,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4266,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4277,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4288,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4299,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4310,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4321,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4332,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4392,13 +3448,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4409,10 +3465,399 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(A2=C2, "equal", "not")</f>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D30" si="0">IF(A3=C3, "equal", "not")</f>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>equal</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A30">
+    <sortCondition ref="A2:A30"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4425,386 +3870,1038 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="str">
-        <f>IF(A2=B2,"equal","not")</f>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C30" si="0">IF(A3=B3,"equal","not")</f>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B23" t="s">
-        <v>235</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>204</v>
-      </c>
-      <c r="B28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>equal</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>500</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="12">
+        <v>650</v>
+      </c>
+      <c r="C5" s="12">
+        <v>37.5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>32.5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>29.75</v>
+      </c>
+      <c r="G5" s="12">
+        <f>($B5+C5*G3)/G3</f>
+        <v>44</v>
+      </c>
+      <c r="H5" s="12">
+        <f>($B5+D5*H3)/H3</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="I5" s="12">
+        <f>($B5+E5*I3)/I3</f>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <f>3272.85/C3</f>
+        <v>32.728499999999997</v>
+      </c>
+      <c r="D6">
+        <f>5348.75/D3</f>
+        <v>10.6975</v>
+      </c>
+      <c r="G6" s="12">
+        <f>(B6+C6*C3)/C3</f>
+        <v>33.728499999999997</v>
+      </c>
+      <c r="H6" s="12">
+        <f>(B6+D6*D3)/H3</f>
+        <v>10.897500000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="15"/>
+    <col min="2" max="2" width="10.1640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="15"/>
+    <col min="5" max="5" width="35.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="13" customFormat="1" ht="23">
+      <c r="A1" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="28">
+        <v>41634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1">
+      <c r="B2" s="27"/>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" s="23" customFormat="1">
+      <c r="A3" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="18" customFormat="1" ht="30">
+      <c r="B5" s="22">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="21">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="18" customFormat="1">
+      <c r="B7" s="22">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="21">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="18" customFormat="1">
+      <c r="B9" s="22">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="18">
+        <v>2</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="21">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="18" customFormat="1">
+      <c r="B11" s="22">
+        <v>8</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="18">
+        <v>2</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="21">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="15">
+        <v>3</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="18" customFormat="1">
+      <c r="B13" s="22">
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="18">
+        <v>2</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="21">
+        <v>11</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="18" customFormat="1" ht="30">
+      <c r="B15" s="22">
+        <v>12</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="18">
+        <v>13</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="21">
+        <v>13</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="15">
+        <v>2</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="60">
+      <c r="B17" s="22">
+        <v>14</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="18">
+        <v>25</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="21">
+        <v>15</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="15">
+        <v>4</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="18" customFormat="1" ht="30">
+      <c r="B19" s="22">
+        <v>16</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="18">
+        <v>8</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="21">
+        <v>17</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="18" customFormat="1" ht="45">
+      <c r="B21" s="22">
+        <v>18</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="18">
+        <v>17</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="21">
+        <v>19</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="15">
+        <v>5</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="18" customFormat="1">
+      <c r="B23" s="22">
+        <v>20</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="18">
+        <v>6</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="21">
+        <v>21</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="18" customFormat="1">
+      <c r="B25" s="22">
+        <v>22</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="18">
+        <v>2</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="21">
+        <v>23</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" s="18" customFormat="1" ht="45">
+      <c r="B27" s="22">
+        <v>24</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="18">
+        <v>18</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="21">
+        <v>25</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="15">
+        <v>1</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="18" customFormat="1" ht="30">
+      <c r="B29" s="22">
+        <v>26</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="19">
+        <v>18689</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="18">
+        <v>6</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="21">
+        <v>27</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="16">
+        <v>19950</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="15">
+        <v>1</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" s="18" customFormat="1">
+      <c r="B31" s="22">
+        <v>28</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="18">
+        <v>19950</v>
+      </c>
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="21">
+        <v>29</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="15">
+        <v>18677</v>
+      </c>
+      <c r="H32" s="15">
+        <v>1</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" s="18" customFormat="1">
+      <c r="B33" s="22">
+        <v>30</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="18">
+        <v>1</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="21">
+        <v>31</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="15">
+        <v>1</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" s="18" customFormat="1">
+      <c r="B35" s="22">
+        <v>32</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H35" s="18">
+        <v>1</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="22">
+        <v>33</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="15">
+        <v>1</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="15">
+        <f>SUM(H5:H32)</f>
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E26" r:id="rId1"/>
+    <hyperlink ref="E28:E30" r:id="rId2" display="Panasonic Electronic Components"/>
+    <hyperlink ref="E25" r:id="rId3"/>
+    <hyperlink ref="E14" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="63" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/cam/ADS1299-shield-bom.xlsx
+++ b/cam/ADS1299-shield-bom.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="257">
   <si>
     <t>Reference</t>
   </si>
@@ -322,9 +322,6 @@
     <t>160-1737-1-ND</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-search/en?mpart=S3B-PH-K-S%28LF%29%28SN%29&amp;vendor=455</t>
-  </si>
-  <si>
     <t>455-1720-ND</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>445-1019-1-ND</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/MLF1608A3R3K/445-1019-1-ND/504417</t>
-  </si>
-  <si>
     <t>296-34818-1-ND</t>
   </si>
   <si>
@@ -415,9 +409,6 @@
     <t>296-21978-1-ND</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/TXS0102DCTR/296-21978-1-ND/1632671</t>
-  </si>
-  <si>
     <t>296-21527-1-ND</t>
   </si>
   <si>
@@ -821,6 +812,27 @@
   </si>
   <si>
     <t>0805</t>
+  </si>
+  <si>
+    <t>C7,C9,C11,C13,C15,C18,C19,C21,C22,C23,C26,C29,C30,C32,C50,C51,C52,C54,C56,C58,C60,C61,C65,C68,C70,C72</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/S3B-PH-SM4-TB(LF)(SN)/455-1750-1-ND/926847</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/MLZ2012A3R3W/445-6394-1-ND/2465720</t>
+  </si>
+  <si>
+    <t>TXS0102DCUR - 2-Bit Bi-Directional Level Shifter (I2C, etc.)</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/TXS0102DCUR/296-21931-1-ND/1629284</t>
+  </si>
+  <si>
+    <t>TXS0102DCUR</t>
+  </si>
+  <si>
+    <t>296-21931-1-ND</t>
   </si>
 </sst>
 </file>
@@ -1496,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1517,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>70</v>
@@ -1532,13 +1544,13 @@
         <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -1547,7 +1559,7 @@
         <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M1" t="s">
         <v>52</v>
@@ -1555,19 +1567,19 @@
     </row>
     <row r="2" spans="1:13" ht="45">
       <c r="A2" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>51</v>
@@ -1586,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>53</v>
@@ -1594,22 +1606,22 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1625,7 +1637,7 @@
         <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1633,16 +1645,16 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>85</v>
@@ -1669,19 +1681,19 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1694,10 +1706,10 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1705,19 +1717,19 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1733,7 +1745,7 @@
         <v>66</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1741,19 +1753,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1769,7 +1781,7 @@
         <v>68</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1777,19 +1789,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1805,7 +1817,7 @@
         <v>69</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1813,16 +1825,16 @@
         <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1838,7 +1850,7 @@
         <v>74</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1846,19 +1858,19 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>116</v>
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" t="s">
+        <v>256</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1871,10 +1883,10 @@
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1882,19 +1894,19 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>113</v>
+        <v>183</v>
+      </c>
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1907,10 +1919,10 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1918,19 +1930,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1943,27 +1955,27 @@
         <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>58</v>
@@ -1987,22 +1999,22 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2015,40 +2027,40 @@
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
         <v>10</v>
@@ -2062,19 +2074,19 @@
         <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -2090,24 +2102,24 @@
         <v>26</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>54</v>
@@ -2134,16 +2146,16 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F18" t="s">
-        <v>247</v>
+        <v>154</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2156,10 +2168,10 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30">
@@ -2167,18 +2179,18 @@
         <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G19">
@@ -2203,16 +2215,16 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
         <v>77</v>
@@ -2242,16 +2254,16 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2267,7 +2279,7 @@
         <v>60</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2275,16 +2287,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2297,10 +2309,10 @@
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2308,16 +2320,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2330,27 +2342,27 @@
         <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2366,7 +2378,7 @@
         <v>62</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2374,19 +2386,19 @@
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2402,7 +2414,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2410,19 +2422,19 @@
         <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2438,7 +2450,7 @@
         <v>32</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2446,19 +2458,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2474,27 +2486,27 @@
         <v>28</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2507,10 +2519,10 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30">
@@ -2518,19 +2530,19 @@
         <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" t="s">
         <v>164</v>
       </c>
-      <c r="E29" t="s">
-        <v>167</v>
-      </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29">
         <v>18</v>
@@ -2546,7 +2558,7 @@
         <v>34</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2554,16 +2566,16 @@
         <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2579,15 +2591,15 @@
         <v>61</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>65</v>
@@ -2607,10 +2619,10 @@
         <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2618,7 +2630,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -2638,18 +2650,18 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>71</v>
@@ -2671,10 +2683,10 @@
         <v>36</v>
       </c>
       <c r="J33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2682,7 +2694,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>65</v>
@@ -2704,7 +2716,7 @@
         <v>36</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2712,13 +2724,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J35" t="s">
         <v>38</v>
       </c>
       <c r="K35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2726,13 +2738,13 @@
         <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J36" t="s">
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2740,13 +2752,13 @@
         <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2839,19 +2851,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="F4" t="s">
         <v>240</v>
-      </c>
-      <c r="D4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2936,7 +2948,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2981,7 +2993,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B15">
         <v>0.5</v>
@@ -3001,7 +3013,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B17" s="10">
         <f>B11+B11*B15</f>
@@ -3026,7 +3038,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -3046,7 +3058,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B20">
         <f>B17+B17*B18</f>
@@ -3095,22 +3107,22 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B2" s="8">
         <f>SUMIF(BOM!B2:B37,"=SMT",BOM!G2:G37)</f>
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B3" s="8">
         <f>SUMIF(BOM!B3:B38,"=TH",BOM!G3:G38)</f>
@@ -3123,13 +3135,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B6" s="8">
         <v>148</v>
@@ -3137,7 +3149,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B7" s="8">
         <v>115</v>
@@ -3145,7 +3157,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B9">
         <f>COUNT(BOM!G2:G37)</f>
@@ -3154,11 +3166,11 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B10">
         <f>SUM(BOM!G2:G38)</f>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -3206,7 +3218,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -3217,7 +3229,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3228,7 +3240,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -3239,13 +3251,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3261,7 +3273,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -3272,7 +3284,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3289,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3300,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3311,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3322,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3333,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3344,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3355,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3366,7 +3378,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3377,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3388,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3448,13 +3460,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3465,7 +3477,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3494,7 +3506,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
         <v>45</v>
@@ -3514,10 +3526,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D30" si="0">IF(A3=C3, "equal", "not")</f>
@@ -3538,10 +3550,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -3550,10 +3562,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -3562,10 +3574,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -3574,10 +3586,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -3586,10 +3598,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -3598,10 +3610,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -3610,10 +3622,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -3622,10 +3634,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -3646,10 +3658,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -3670,10 +3682,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -3694,10 +3706,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -3730,10 +3742,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -3742,10 +3754,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -3754,10 +3766,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -3766,10 +3778,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -3778,10 +3790,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -3790,10 +3802,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -3802,10 +3814,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -3814,10 +3826,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -3826,10 +3838,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -3838,10 +3850,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -3883,20 +3895,20 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="C2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -3919,7 +3931,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B5" s="12">
         <v>650</v>
@@ -3948,7 +3960,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4006,7 +4018,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1" ht="23">
       <c r="A1" s="26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="14"/>
@@ -4020,10 +4032,10 @@
     </row>
     <row r="3" spans="1:10" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>0</v>
@@ -4041,7 +4053,7 @@
         <v>45</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>3</v>
@@ -4058,22 +4070,22 @@
         <v>12</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H4" s="15">
         <v>1</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="30">
@@ -4084,22 +4096,22 @@
         <v>15</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E5" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>152</v>
-      </c>
       <c r="G5" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" s="18">
         <v>1</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4110,16 +4122,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
@@ -4136,16 +4148,16 @@
         <v>13</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H7" s="18">
         <v>1</v>
@@ -4162,16 +4174,16 @@
         <v>14</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H8" s="15">
         <v>1</v>
@@ -4189,13 +4201,13 @@
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H9" s="18">
         <v>2</v>
@@ -4212,16 +4224,16 @@
         <v>18</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10" s="15">
         <v>1</v>
@@ -4238,22 +4250,22 @@
         <v>17</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H11" s="18">
         <v>2</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4267,10 +4279,10 @@
         <v>71</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>51</v>
@@ -4287,19 +4299,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H13" s="18">
         <v>2</v>
@@ -4319,10 +4331,10 @@
         <v>72</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>85</v>
@@ -4339,16 +4351,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>58</v>
@@ -4365,25 +4377,25 @@
         <v>13</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H16" s="15">
         <v>2</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="60">
@@ -4391,16 +4403,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>56</v>
@@ -4423,13 +4435,13 @@
         <v>71</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" s="15">
         <v>4</v>
@@ -4443,16 +4455,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>54</v>
@@ -4475,10 +4487,10 @@
         <v>72</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>82</v>
@@ -4501,10 +4513,10 @@
         <v>71</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>77</v>
@@ -4524,17 +4536,17 @@
         <v>19</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H22" s="15">
         <v>5</v>
@@ -4554,13 +4566,13 @@
         <v>71</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" s="18">
         <v>6</v>
@@ -4580,13 +4592,13 @@
         <v>71</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H24" s="15">
         <v>2</v>
@@ -4606,13 +4618,13 @@
         <v>71</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H25" s="18">
         <v>2</v>
@@ -4626,25 +4638,25 @@
         <v>23</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H26" s="15">
         <v>1</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="2:10" s="18" customFormat="1" ht="45">
@@ -4658,13 +4670,13 @@
         <v>71</v>
       </c>
       <c r="E27" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>167</v>
-      </c>
       <c r="G27" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H27" s="18">
         <v>18</v>
@@ -4682,13 +4694,13 @@
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H28" s="15">
         <v>1</v>
@@ -4702,7 +4714,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
@@ -4716,7 +4728,7 @@
         <v>6</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:10">
@@ -4738,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="18" customFormat="1">
@@ -4746,7 +4758,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="18" t="s">
@@ -4759,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -4792,13 +4804,13 @@
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H33" s="18">
         <v>1</v>
@@ -4816,19 +4828,19 @@
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H34" s="15">
         <v>1</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="2:9" s="18" customFormat="1">
@@ -4840,19 +4852,19 @@
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H35" s="18">
         <v>1</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -4864,19 +4876,19 @@
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H36" s="15">
         <v>1</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="2:9">
